--- a/biology/Histoire de la zoologie et de la botanique/Martin_Cheek/Martin_Cheek.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Martin_Cheek/Martin_Cheek.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Martin Roy Cheek, né en 1960, est un botaniste et taxonomiste britannique, spécialiste de la flore tropicale d'Afrique centrale – particulièrement du Cameroun – et d'Asie, en poste aux jardins botaniques royaux de Kew.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Martin Cheek est le personnage central et le fil conducteur du documentaire français Les Brumes du Manengouba réalisé en 2007 par une équipe française[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Martin Cheek est le personnage central et le fil conducteur du documentaire français Les Brumes du Manengouba réalisé en 2007 par une équipe française.
 </t>
         </is>
       </c>
@@ -542,14 +556,16 @@
           <t>Sélection de publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>The plants of Mt Cameroon: a conservation checklist (en collab.), 1998
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The plants of Mt Cameroon: a conservation checklist (en collab.), 1998
 The plants of Mount Oku and the Ijim Ridge, Cameroon: a conservation checklist (en collab.), 2000
 Nepenthaceae, (en collab.), 2000
 Flora of tropical East Africa. Sterculiaceae, (en collab.), 2001
 Red data book of the flowering plants of Cameroon: IUCN global assessments, (en collab.), 2011
-« Recircumscription of the Nepenthes alata group (Caryophyllales: Nepenthaceae), in the Philippines, with four new species », (en collab.), European Journal of Taxonomy, no 69, 2013, téléchargeable [2]</t>
+« Recircumscription of the Nepenthes alata group (Caryophyllales: Nepenthaceae), in the Philippines, with four new species », (en collab.), European Journal of Taxonomy, no 69, 2013, téléchargeable </t>
         </is>
       </c>
     </row>
